--- a/DATA/numeros2.xlsx
+++ b/DATA/numeros2.xlsx
@@ -9,7 +9,7 @@
     <sheet name="numeros" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -431,7 +431,7 @@
   <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
